--- a/exportorv2/example/Globals.xlsx
+++ b/exportorv2/example/Globals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -217,6 +217,22 @@
   </si>
   <si>
     <t>Leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vec2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,6 +842,28 @@
       </c>
       <c r="E7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
